--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W20_H50_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4847560975609756</v>
+        <v>0.4817073170731707</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1311781896257577</v>
+        <v>0.1325561768638827</v>
       </c>
       <c r="J2" t="n">
-        <v>1692.216965307247</v>
+        <v>1777.974794947457</v>
       </c>
       <c r="K2" t="n">
-        <v>3626746.746971871</v>
+        <v>4324127.310090886</v>
       </c>
       <c r="L2" t="n">
-        <v>1904.401939447624</v>
+        <v>2079.453608545015</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3158474035222146</v>
+        <v>0.1842929399001327</v>
       </c>
     </row>
   </sheetData>
